--- a/DataFile/Runner.xlsx
+++ b/DataFile/Runner.xlsx
@@ -39,7 +39,7 @@
     <t>Buy</t>
   </si>
   <si>
-    <t>No</t>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataFile/Runner.xlsx
+++ b/DataFile/Runner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Testcase_Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +450,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
